--- a/maven_use_base/src/main/resources/excel/datacheck_cookies/data_check_cookies.xlsx
+++ b/maven_use_base/src/main/resources/excel/datacheck_cookies/data_check_cookies.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\maven_java_base_git\java_maven_base_git\maven_use_base\src\main\resources\excel\datacheck_cookies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE82D44-40A4-4034-8018-927B9CC535AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="952" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="177">
   <si>
     <t>post</t>
   </si>
@@ -326,171 +332,279 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"提现成功"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+  </si>
+  <si>
+    <t>{"id":"1","status":"4"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
+  </si>
+  <si>
+    <t>{"id":"1"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20405","data":null,"msg":"该项目不在核保审批或终审状态，无法生成回款计划！"}</t>
+  </si>
+  <si>
+    <t>{"id":"1","status":"5"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666665","amount":"100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":[{"id":null,"investId":"1","createTime":"2018-04-27 12:24:01","terms":"1","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2018-05-27 12:24:01","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"1","createTime":"2018-04-27 12:24:01","terms":"2","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2018-06-27 12:24:01","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"1","createTime":"2018-04-27 12:24:01","terms":"3","unfinishedInterest":"1.0","unfinishedPrincipal":"100.00","repaymentDate":"2018-07-27 12:24:01","actualRepaymentDate":null,"status":"0"}],"msg":"生成回款计划成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlCheckResult(数据验证结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualResult(实际结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/list</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/audit</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/getLoanList</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/generateRepayments</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>ExpectedResponseData(期望响应数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualResponseData(实际响应数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","pwd":""}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","amount":"-100"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","amount":"10000"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","amount":"abc"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","amount":"0"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","amount":"100"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","pwd":"${pwd}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"${pwd}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666665","pwd":"${pwd}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","pwd":"${pwd}","regname":"${nickname}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","pwd":"","regname":"${nickname}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"","regname":"${nickname}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"135","pwd":"${pwd}","regname":"${nickname}"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","pwd":"123","regname":"${nickname}"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1,"regname":"${nickname}","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"${mobilephone}","leaveamount":"10000.00","type":"1","regtime":"2018-04-26 14:42:36.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","pwd":"1234567"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from member where MobilePhone='${mobilephone}';</t>
+  </si>
+  <si>
+    <t>select leaveamount,Type from member where MobilePhone='${mobilephone}';</t>
+  </si>
+  <si>
+    <t>select LeaveAmount from member where MobilePhone='${mobilephone}'</t>
+  </si>
+  <si>
+    <t>ReqHeader(设置Header)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RespHeader(提取Header)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtractRespData(提取响应数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssertKeyInfo(关键信息断言)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"headerName":"Set-Cookie","paramName":"cookie"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"parameterName":"memberId","jsonPath":"$.data.id"},{"parameterName":"leaveAmount","jsonPath":"$.data.leaveamount"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"注册成功1111111"},{"jsonPath":"$.code","expectedValue":"10001"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"手机号码已被注册"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"密码不能为空"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"手机号不能为空"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"手机号码格式不正确"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"密码长度必须为6~18"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"登录成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"用户名或密码错误"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"此手机号对应的会员不存在"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"请输入范围在0到50万之间的正数金额"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"充值成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"请输入数字"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"余额不足，请修改提现额度"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"取现成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"加标成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"更新状态成功：竞标开始，当前标为竞标中状态"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"竞标成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"不存在该标的"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"该项目不在核保审批或终审状态，无法生成回款计划！"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"更新状态成功：当前标为核保审批状态"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"生成回款计划成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"memberId":"1","title":"测试新增项目","loanRate":"12","loanTerm":"3","loanDateType":"2","repaymemtWay":"11","biddingDays":"5","amount":"100000"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
-  </si>
-  <si>
-    <t>{"id":"1","status":"4"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
-  </si>
-  <si>
-    <t>{"id":"1"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20405","data":null,"msg":"该项目不在核保审批或终审状态，无法生成回款计划！"}</t>
-  </si>
-  <si>
-    <t>{"id":"1","status":"5"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13666666665","amount":"100"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":[{"id":null,"investId":"1","createTime":"2018-04-27 12:24:01","terms":"1","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2018-05-27 12:24:01","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"1","createTime":"2018-04-27 12:24:01","terms":"2","unfinishedInterest":"1.0","unfinishedPrincipal":"0","repaymentDate":"2018-06-27 12:24:01","actualRepaymentDate":null,"status":"0"},{"id":null,"investId":"1","createTime":"2018-04-27 12:24:01","terms":"3","unfinishedInterest":"1.0","unfinishedPrincipal":"100.00","repaymentDate":"2018-07-27 12:24:01","actualRepaymentDate":null,"status":"0"}],"msg":"生成回款计划成功"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SqlCheckResult(数据验证结果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.data.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActualResult(实际结果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/list</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/bidLoan</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/add</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/audit</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/getLoanList</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/generateRepayments</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByLoanId</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
-  </si>
-  <si>
-    <t>ExpectedResponseData(期望响应数据)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActualResponseData(实际响应数据)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":""}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","amount":"-100"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","amount":"10000"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","amount":"abc"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","amount":"0"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","amount":"100"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"${pwd}"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"${pwd}"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13666666665","pwd":"${pwd}"}</t>
-  </si>
-  <si>
     <t>{"memberId":"1","password":"${pwd}","loanId":"1","amount":"100"}</t>
   </si>
   <si>
     <t>{"memberId":"1","password":"${pwd}","loanId":"10000","amount":"100000"}</t>
   </si>
   <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"${pwd}","regname":"${nickname}"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"","regname":"${nickname}"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"","regname":"${nickname}"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"135","pwd":"${pwd}","regname":"${nickname}"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"123","regname":"${nickname}"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1,"regname":"${nickname}","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"${mobilephone}","leaveamount":"10000.00","type":"1","regtime":"2018-04-26 14:42:36.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"1234567"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(*) from member where MobilePhone='${mobilephone}';</t>
-  </si>
-  <si>
-    <t>select leaveamount,Type from member where MobilePhone='${mobilephone}';</t>
-  </si>
-  <si>
-    <t>select LeaveAmount from member where MobilePhone='${mobilephone}'</t>
+    <t>[{"headerName":"Cookie","paramName":"cookie"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -582,6 +696,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,9 +706,80 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -605,7 +793,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -640,7 +828,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,9 +861,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,6 +913,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -924,7 +1146,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -938,7 +1160,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -952,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -966,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -980,7 +1202,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -994,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1008,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1022,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1036,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1050,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1064,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1078,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1092,13 +1314,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8765/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8765/futureloan/mvc/api/member/register" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1106,11 +1328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,7 +1345,7 @@
     <col min="7" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1137,16 +1359,28 @@
         <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1157,13 +1391,16 @@
         <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1174,13 +1411,16 @@
         <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K3" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1191,13 +1431,16 @@
         <v>88</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1208,13 +1451,16 @@
         <v>88</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1225,13 +1471,16 @@
         <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1242,13 +1491,16 @@
         <v>88</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1259,13 +1511,19 @@
         <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1276,13 +1534,16 @@
         <v>88</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1293,13 +1554,16 @@
         <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1310,13 +1574,16 @@
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1327,13 +1594,16 @@
         <v>88</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K12" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1344,13 +1614,19 @@
         <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="H13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1361,13 +1637,19 @@
         <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="H14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1378,16 +1660,22 @@
         <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1403,8 +1691,14 @@
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1415,13 +1709,19 @@
         <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="H17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1432,13 +1732,19 @@
         <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1454,8 +1760,14 @@
       <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="H19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1466,13 +1778,19 @@
         <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="H20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1483,13 +1801,19 @@
         <v>88</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1500,13 +1824,19 @@
         <v>88</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="H22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1517,13 +1847,19 @@
         <v>88</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="H23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1534,13 +1870,19 @@
         <v>88</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="H24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1551,13 +1893,19 @@
         <v>88</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1568,13 +1916,19 @@
         <v>88</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1585,13 +1939,19 @@
         <v>88</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="H27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1602,13 +1962,19 @@
         <v>88</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+      <c r="H28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="189" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1619,14 +1985,20 @@
         <v>88</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E12"/>
+  <autoFilter ref="A1:E12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1634,10 +2006,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1669,7 +2041,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>46</v>
@@ -1686,7 +2058,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>47</v>
@@ -1703,7 +2075,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -1720,7 +2092,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>49</v>
@@ -1737,7 +2109,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -1754,7 +2126,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>48</v>
@@ -1771,7 +2143,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
@@ -1788,7 +2160,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>52</v>
@@ -1856,7 +2228,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>52</v>
@@ -1890,7 +2262,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>66</v>

--- a/maven_use_base/src/main/resources/excel/datacheck_cookies/data_check_cookies.xlsx
+++ b/maven_use_base/src/main/resources/excel/datacheck_cookies/data_check_cookies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\maven_java_base_git\java_maven_base_git\maven_use_base\src\main\resources\excel\datacheck_cookies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE82D44-40A4-4034-8018-927B9CC535AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB17134-60DF-49E2-8B16-DF950BC79411}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="952" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="544" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="180">
   <si>
     <t>post</t>
   </si>
@@ -326,12 +326,6 @@
     <t>{"mobilephone":"1388888000","amount":"100"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"提现成功"}</t>
-  </si>
-  <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
   </si>
   <si>
@@ -375,45 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/list</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/bidLoan</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/add</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/audit</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/getLoanList</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/generateRepayments</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByLoanId</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
-  </si>
-  <si>
     <t>ExpectedResponseData(期望响应数据)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"jsonPath":"$.msg","expectedValue":"注册成功1111111"},{"jsonPath":"$.code","expectedValue":"10001"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"jsonPath":"$.msg","expectedValue":"手机号码已被注册"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,16 +539,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"memberId":"1","title":"测试新增项目","loanRate":"12","loanTerm":"3","loanDateType":"2","repaymemtWay":"11","biddingDays":"5","amount":"100000"}</t>
-  </si>
-  <si>
-    <t>{"memberId":"1","password":"${pwd}","loanId":"1","amount":"100"}</t>
-  </si>
-  <si>
-    <t>{"memberId":"1","password":"${pwd}","loanId":"10000","amount":"100000"}</t>
-  </si>
-  <si>
     <t>[{"headerName":"Cookie","paramName":"cookie"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/list</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/loan/audit</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/loan/getLoanList</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/loan/generateRepayments</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/financelog/getFinanceLogList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"注册成功"},{"jsonPath":"$.code","expectedValue":"10001"}]</t>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20119","data":null,"msg":"取现成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"取现成功"}]</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"取现成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"余额不足，请修改提现额度"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","amount":"10000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"测试新增项目","loanRate":"12","loanTerm":"3","loanDateType":"2","repaymemtWay":"11","biddingDays":"5","amount":"100000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"${pwd}","loanId":"1","amount":"100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"${pwd}","loanId":"10000","amount":"100000"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,6 +634,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -632,6 +651,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -657,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +718,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,7 +1135,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1172,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1160,7 +1186,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1173,8 +1199,8 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>114</v>
+      <c r="D4" s="15" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1187,8 +1213,8 @@
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>115</v>
+      <c r="D5" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1202,7 +1228,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1216,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1230,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1244,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1258,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1272,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1286,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1300,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1313,14 +1339,17 @@
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>124</v>
+      <c r="D14" s="15" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8765/futureloan/mvc/api/member/register" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{44C557B7-6A2E-4D18-978C-AC0F5698AC46}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E4E9C85D-6524-4CF9-BCEC-06B8E0F5CBD3}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{8D44BEC3-EC3A-4117-B1BF-BE6B33A85866}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1331,18 +1360,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="31.75" style="1"/>
+    <col min="4" max="4" width="35" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1359,25 +1389,25 @@
         <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.15">
@@ -1391,16 +1421,16 @@
         <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K2" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1411,13 +1441,13 @@
         <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1431,13 +1461,13 @@
         <v>88</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1451,13 +1481,13 @@
         <v>88</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1471,13 +1501,13 @@
         <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1491,13 +1521,13 @@
         <v>88</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1511,16 +1541,16 @@
         <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1534,13 +1564,13 @@
         <v>88</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1554,13 +1584,13 @@
         <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1574,13 +1604,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1594,13 +1624,13 @@
         <v>88</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1614,16 +1644,16 @@
         <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1637,19 +1667,19 @@
         <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1660,19 +1690,19 @@
         <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1692,10 +1722,10 @@
         <v>24</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1709,16 +1739,16 @@
         <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1732,16 +1762,16 @@
         <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1761,13 +1791,13 @@
         <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1777,20 +1807,20 @@
       <c r="C20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>97</v>
+      <c r="D20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1801,19 +1831,19 @@
         <v>88</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1824,19 +1854,19 @@
         <v>88</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1846,17 +1876,17 @@
       <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>173</v>
+      <c r="D23" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1870,19 +1900,19 @@
         <v>88</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1892,20 +1922,20 @@
       <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>174</v>
+      <c r="D25" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1915,17 +1945,17 @@
       <c r="C26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>175</v>
+      <c r="D26" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1939,16 +1969,16 @@
         <v>88</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1962,19 +1992,19 @@
         <v>88</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="189" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="270" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1985,16 +2015,16 @@
         <v>88</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2071,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>46</v>
@@ -2058,7 +2088,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>47</v>
@@ -2075,7 +2105,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -2092,7 +2122,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>49</v>
@@ -2109,7 +2139,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -2126,7 +2156,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>48</v>
@@ -2143,7 +2173,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
@@ -2160,7 +2190,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>52</v>
@@ -2228,7 +2258,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>52</v>
@@ -2262,7 +2292,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>66</v>

--- a/maven_use_base/src/main/resources/excel/datacheck_cookies/data_check_cookies.xlsx
+++ b/maven_use_base/src/main/resources/excel/datacheck_cookies/data_check_cookies.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\maven_java_base_git\java_maven_base_git\maven_use_base\src\main\resources\excel\datacheck_cookies\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB17134-60DF-49E2-8B16-DF950BC79411}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="544" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="544"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -543,51 +537,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/list</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/bidLoan</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/loan/add</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/loan/audit</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/loan/getLoanList</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/loan/generateRepayments</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/invest/getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/invest/getInvestsByLoanId</t>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/financelog/getFinanceLogList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"jsonPath":"$.msg","expectedValue":"注册成功"},{"jsonPath":"$.code","expectedValue":"10001"}]</t>
   </si>
   <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/withdraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.99:9000/futureloan/mvc/api/member/recharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"status":0,"code":"20119","data":null,"msg":"取现成功"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,12 +569,51 @@
   <si>
     <t>{"memberId":"${memberId}","password":"${pwd}","loanId":"10000","amount":"100000"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/withdraw</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/list</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/loan/audit</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/loan/getLoanList</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/loan/generateRepayments</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/financelog/getFinanceLogList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,74 +723,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -819,7 +742,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -854,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,26 +810,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -939,23 +845,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,7 +1061,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1186,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1200,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1228,7 +1117,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1242,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1256,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1270,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1284,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1298,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1311,8 +1200,8 @@
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>166</v>
+      <c r="D12" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1326,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1340,16 +1229,17 @@
         <v>9</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{44C557B7-6A2E-4D18-978C-AC0F5698AC46}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{E4E9C85D-6524-4CF9-BCEC-06B8E0F5CBD3}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{8D44BEC3-EC3A-4117-B1BF-BE6B33A85866}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://120.78.128.25:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D14" r:id="rId2" display="http://192.168.0.99:9000/futureloan/mvc/api/financelog/getFinanceLogList"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://192.168.0.99:9000/futureloan/mvc/api/member/withdraw"/>
+    <hyperlink ref="D4" r:id="rId4" display="http://192.168.0.99:9000/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="D12" r:id="rId5" display="http://192.168.0.99:9000/futureloan/mvc/api/invest/getInvestsByMemberId"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1357,10 +1247,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1427,7 +1317,7 @@
         <v>89</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1808,10 +1698,10 @@
         <v>88</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>157</v>
@@ -1834,13 +1724,13 @@
         <v>116</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>157</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
@@ -1857,7 +1747,7 @@
         <v>117</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>157</v>
@@ -1877,7 +1767,7 @@
         <v>88</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>97</v>
@@ -1923,7 +1813,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>100</v>
@@ -1946,7 +1836,7 @@
         <v>88</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>101</v>
@@ -2028,7 +1918,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E12"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2036,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
